--- a/Tiering Calculation.xlsx
+++ b/Tiering Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28603c7bc106202d/文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{A8DC89B6-46D3-403C-9EF7-BD5B348CF464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F17BAB-DAF7-48BD-81B5-576BE216D704}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{A8DC89B6-46D3-403C-9EF7-BD5B348CF464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EACEDCFA-8063-45BF-9E31-E140F9C0821F}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Supplies 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,19 +67,7 @@
     <t>E- tier</t>
   </si>
   <si>
-    <t>Chaos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Divine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=a&lt;=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,7 +168,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -196,12 +184,20 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>4</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=r&lt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +209,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,25 +231,37 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF0DB374"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D1117"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -266,23 +274,23 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom/>
@@ -290,24 +298,24 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -315,39 +323,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -357,64 +343,91 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,6 +435,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0DB374"/>
+      <color rgb="FF0D1117"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -699,307 +718,322 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.640625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.78515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.92578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.35546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.0703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.78515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10">
-        <f t="shared" ref="B1:B8" si="0">C2</f>
-        <v>81</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="14">
+        <f t="shared" ref="C2:C9" si="0">D3</f>
+        <v>298.13950000640011</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7">
+        <f>C2/1</f>
+        <v>298.13950000640011</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15">
+        <f t="shared" si="0"/>
+        <v>94.347943040000033</v>
+      </c>
+      <c r="D3" s="4">
+        <f>D7*I10^4</f>
+        <v>298.13950000640011</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7">
+        <f>H2^0.25</f>
+        <v>4.1553238788426405</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15">
+        <f t="shared" si="0"/>
+        <v>29.856944000000006</v>
+      </c>
+      <c r="D4" s="4">
+        <f>D7*I10^3</f>
+        <v>94.347943040000033</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3">
-        <f>B1/1</f>
-        <v>81</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C2" s="1">
-        <f>C6*H9^4</f>
-        <v>81</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3">
-        <f>G1^0.25</f>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H4" s="7">
+        <f>H2^(1/3)</f>
+        <v>6.6804621275900358</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <f>C6*H9^3</f>
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3">
-        <f>G1^(1/3)</f>
-        <v>4.3267487109222253</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3">
-        <f>SQRT(J2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <f>C6*H9^2</f>
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3">
-        <f>G1^0.2</f>
-        <v>2.4082246852806923</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="14">
-        <f>J1*(B5-B6)/(C5-C6)</f>
-        <v>1</v>
+      <c r="K4" s="7">
+        <f>SQRT(K3)</f>
+        <v>3.1622776601683795</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" si="0"/>
+        <v>9.4484000000000012</v>
+      </c>
+      <c r="D5" s="4">
+        <f>D7*I10^2</f>
+        <v>29.856944000000006</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="7">
+        <f>H2^0.2</f>
+        <v>3.1252438106705229</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="18">
+        <f>K2*(C6-C7)/(D6-D7)</f>
+        <v>0.94936708860759478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
+      <c r="C6" s="15">
         <f t="shared" si="0"/>
+        <v>2.99</v>
+      </c>
+      <c r="D6" s="4">
+        <f>D7*I10</f>
+        <v>9.4484000000000012</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <f>C6*H9</f>
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="20">
+        <f>K3*(C6-C7)/(D5-D6)</f>
+        <v>1.0014420765902898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.94620253164556967</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2.99</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="22">
+        <f>ABS(K5-1)+ABS(K6-1)</f>
+        <v>5.2074987982695053E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.2994311809004967</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D7/I10</f>
+        <v>0.94620253164556967</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4">
+        <f>K2-0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="7">
+        <f>K2+0.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="0"/>
+        <v>9.4756702816612873E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f>D7/I10^2</f>
+        <v>0.2994311809004967</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="4">
+        <f>K4-0.5</f>
+        <v>2.6622776601683795</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="7">
+        <f>K4+0.5</f>
+        <v>3.6622776601683795</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="18">
-        <f>J2*(B5-B6)/(C4-C5)</f>
-        <v>1.0000000000000002</v>
-      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f>D7/I10^3</f>
+        <v>9.4756702816612873E-2</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3.16</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="16">
-        <f>ABS(J4-1)+ABS(J5-1)</f>
-        <v>2.2204460492503131E-16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C7" s="1">
-        <f>C6/H9</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1">
-        <f>J1-0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3">
-        <f>J1+0.5</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="12">
-        <f t="shared" si="0"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <f>C6/H9^2</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1">
-        <f>J3-0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3">
-        <f>J3+0.5</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <f>C6/H9^3</f>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tiering Calculation.xlsx
+++ b/Tiering Calculation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28603c7bc106202d/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DAHAKA-s-Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="8_{A8DC89B6-46D3-403C-9EF7-BD5B348CF464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EACEDCFA-8063-45BF-9E31-E140F9C0821F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367689F4-663C-4401-B7DF-FE5EA29342CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,13 +161,21 @@
     <t>1/r³</t>
   </si>
   <si>
+    <t>&lt;=r&lt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>r</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="11"/>
+        <sz val="24"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -183,21 +191,13 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="11"/>
+        <sz val="24"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=r&lt;=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +209,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,20 +231,26 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="11"/>
+      <sz val="24"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="24"/>
       <color rgb="FF0DB374"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -375,59 +381,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,327 +725,388 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.92578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.35546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.0703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.78515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="6">
         <f t="shared" ref="C2:C9" si="0">D3</f>
-        <v>298.13950000640011</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>80.443703769799967</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="9">
+        <f>C2/1</f>
+        <v>80.443703769799967</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="10">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11">
+        <f t="shared" si="0"/>
+        <v>26.725482979999995</v>
+      </c>
+      <c r="D3" s="5">
+        <f>D7*I10^4</f>
+        <v>80.443703769799967</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9">
+        <f>H2^0.25</f>
+        <v>2.9948357897419906</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="10">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" si="0"/>
+        <v>8.8788979999999977</v>
+      </c>
+      <c r="D4" s="5">
+        <f>D7*I10^3</f>
+        <v>26.725482979999995</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="9">
+        <f>H2^(1/3)</f>
+        <v>4.316820787789986</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9">
+        <f>SQRT(K3)</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>2.9497999999999998</v>
+      </c>
+      <c r="D5" s="5">
+        <f>D7*I10^2</f>
+        <v>8.8788979999999977</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="9">
+        <f>H2^0.2</f>
+        <v>2.4049076930311699</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="13">
+        <f>K2*(C6-C7)/(D6-D7)</f>
+        <v>0.99667774086378746</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="D6" s="5">
+        <f>D7*I10</f>
+        <v>2.9497999999999998</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7">
-        <f>C2/1</f>
-        <v>298.13950000640011</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="16">
+        <f>K3*(C6-C7)/(D5-D6)</f>
+        <v>0.99336651913334317</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
-        <v>94.347943040000033</v>
-      </c>
-      <c r="D3" s="4">
-        <f>D7*I10^4</f>
-        <v>298.13950000640011</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7">
-        <f>H2^0.25</f>
-        <v>4.1553238788426405</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15">
+        <v>0.32558139534883723</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="19">
+        <f>ABS(K5-1)+ABS(K6-1)</f>
+        <v>9.9557400028693621E-3</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
-        <v>29.856944000000006</v>
-      </c>
-      <c r="D4" s="4">
-        <f>D7*I10^3</f>
-        <v>94.347943040000033</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7">
-        <f>H2^(1/3)</f>
-        <v>6.6804621275900358</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7">
-        <f>SQRT(K3)</f>
-        <v>3.1622776601683795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15">
-        <f t="shared" si="0"/>
-        <v>9.4484000000000012</v>
-      </c>
-      <c r="D5" s="4">
-        <f>D7*I10^2</f>
-        <v>29.856944000000006</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7">
-        <f>H2^0.2</f>
-        <v>3.1252438106705229</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="18">
-        <f>K2*(C6-C7)/(D6-D7)</f>
-        <v>0.94936708860759478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="15">
-        <f t="shared" si="0"/>
-        <v>2.99</v>
-      </c>
-      <c r="D6" s="4">
-        <f>D7*I10</f>
-        <v>9.4484000000000012</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="20">
-        <f>K3*(C6-C7)/(D5-D6)</f>
-        <v>1.0014420765902898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.94620253164556967</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2.99</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="22">
-        <f>ABS(K5-1)+ABS(K6-1)</f>
-        <v>5.2074987982695053E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.2994311809004967</v>
-      </c>
-      <c r="D8" s="4">
+        <v>0.10816657652785291</v>
+      </c>
+      <c r="D8" s="5">
         <f>D7/I10</f>
-        <v>0.94620253164556967</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
+        <v>0.32558139534883723</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <f>K2-0.5</f>
         <v>2.5</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="9">
         <f>K2+0.5</f>
         <v>3.5</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="21">
         <f t="shared" si="0"/>
-        <v>9.4756702816612873E-2</v>
-      </c>
-      <c r="D9" s="4">
+        <v>3.5935739710250138E-2</v>
+      </c>
+      <c r="D9" s="5">
         <f>D7/I10^2</f>
-        <v>0.2994311809004967</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
+        <v>0.10816657652785291</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <f>K4-0.5</f>
-        <v>2.6622776601683795</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="9">
         <f>K4+0.5</f>
-        <v>3.6622776601683795</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <f>D7/I10^3</f>
-        <v>9.4756702816612873E-2</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
+        <v>3.5935739710250138E-2</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="10">
-        <v>3.16</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
+      <c r="I10" s="22">
+        <v>3.01</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tiering Calculation.xlsx
+++ b/Tiering Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DAHAKA-s-Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367689F4-663C-4401-B7DF-FE5EA29342CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A85D09-5B52-415A-A760-67B69C5BD786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,8 +766,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="6">
-        <f t="shared" ref="C2:C9" si="0">D3</f>
-        <v>80.443703769799967</v>
+        <f>D3</f>
+        <v>26.375378043300007</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>10</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="H2" s="9">
         <f>C2/1</f>
-        <v>80.443703769799967</v>
+        <v>26.375378043300007</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="8" t="s">
@@ -800,12 +800,12 @@
         <v>3</v>
       </c>
       <c r="C3" s="11">
-        <f t="shared" si="0"/>
-        <v>26.725482979999995</v>
+        <f t="shared" ref="C2:C9" si="0">D4</f>
+        <v>8.8211966700000026</v>
       </c>
       <c r="D3" s="5">
         <f>D7*I10^4</f>
-        <v>80.443703769799967</v>
+        <v>26.375378043300007</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="7" t="s">
@@ -816,7 +816,7 @@
       </c>
       <c r="H3" s="9">
         <f>H2^0.25</f>
-        <v>2.9948357897419906</v>
+        <v>2.2662075040983041</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
@@ -835,12 +835,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="11">
-        <f t="shared" si="0"/>
-        <v>8.8788979999999977</v>
+        <f>D5</f>
+        <v>2.9502330000000003</v>
       </c>
       <c r="D4" s="5">
         <f>D7*I10^3</f>
-        <v>26.725482979999995</v>
+        <v>8.8211966700000026</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="s">
@@ -851,7 +851,7 @@
       </c>
       <c r="H4" s="9">
         <f>H2^(1/3)</f>
-        <v>4.316820787789986</v>
+        <v>2.9766851284351317</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>26</v>
@@ -871,12 +871,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="11">
-        <f t="shared" si="0"/>
-        <v>2.9497999999999998</v>
+        <f>D6</f>
+        <v>0.98670000000000013</v>
       </c>
       <c r="D5" s="5">
         <f>D7*I10^2</f>
-        <v>8.8788979999999977</v>
+        <v>2.9502330000000003</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="7" t="s">
@@ -887,7 +887,7 @@
       </c>
       <c r="H5" s="9">
         <f>H2^0.2</f>
-        <v>2.4049076930311699</v>
+        <v>1.9241536043888867</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>27</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="K5" s="13">
         <f>K2*(C6-C7)/(D6-D7)</f>
-        <v>0.99667774086378746</v>
+        <v>1.0033444816053512</v>
       </c>
       <c r="L5" s="3"/>
     </row>
@@ -908,11 +908,11 @@
       </c>
       <c r="C6" s="11">
         <f t="shared" si="0"/>
-        <v>0.98</v>
+        <v>0.33</v>
       </c>
       <c r="D6" s="5">
         <f>D7*I10</f>
-        <v>2.9497999999999998</v>
+        <v>0.98670000000000013</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="14">
@@ -932,7 +932,7 @@
       </c>
       <c r="K6" s="16">
         <f>K3*(C6-C7)/(D5-D6)</f>
-        <v>0.99336651913334317</v>
+        <v>1.0067001487679108</v>
       </c>
       <c r="L6" s="3"/>
     </row>
@@ -943,10 +943,10 @@
       </c>
       <c r="C7" s="11">
         <f t="shared" si="0"/>
-        <v>0.32558139534883723</v>
+        <v>0.11036789297658862</v>
       </c>
       <c r="D7" s="17">
-        <v>0.98</v>
+        <v>0.33</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="7" t="s">
@@ -966,7 +966,7 @@
       </c>
       <c r="K7" s="19">
         <f>ABS(K5-1)+ABS(K6-1)</f>
-        <v>9.9557400028693621E-3</v>
+        <v>1.0044630373261976E-2</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -977,11 +977,11 @@
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
-        <v>0.10816657652785291</v>
+        <v>3.691233878815673E-2</v>
       </c>
       <c r="D8" s="5">
         <f>D7/I10</f>
-        <v>0.32558139534883723</v>
+        <v>0.11036789297658862</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7" t="s">
@@ -1009,11 +1009,11 @@
       </c>
       <c r="C9" s="21">
         <f t="shared" si="0"/>
-        <v>3.5935739710250138E-2</v>
+        <v>1.2345263808748069E-2</v>
       </c>
       <c r="D9" s="5">
         <f>D7/I10^2</f>
-        <v>0.10816657652785291</v>
+        <v>3.691233878815673E-2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="7" t="s">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D10" s="5">
         <f>D7/I10^3</f>
-        <v>3.5935739710250138E-2</v>
+        <v>1.2345263808748069E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="7" t="s">
@@ -1055,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="22">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="20"/>

--- a/Tiering Calculation.xlsx
+++ b/Tiering Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DAHAKA-s-Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A85D09-5B52-415A-A760-67B69C5BD786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8012CF-4128-47F8-B998-ADB40B593512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
     <col min="8" max="8" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="11">
-        <f t="shared" ref="C2:C9" si="0">D4</f>
+        <f t="shared" ref="C3:C9" si="0">D4</f>
         <v>8.8211966700000026</v>
       </c>
       <c r="D3" s="5">

--- a/Tiering Calculation.xlsx
+++ b/Tiering Calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DAHAKA-s-Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8012CF-4128-47F8-B998-ADB40B593512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5664638-F673-4179-8E70-4D19BECF7E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
